--- a/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
+++ b/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447079\Documents\GitHub\ElfMillor_2\2月作品展示会の企画書・コスト表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8A75F5-69C8-492F-961F-1E99CDA9CED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5900BAB5-9A64-4322-B60E-9DCD08B753C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="2205" windowWidth="19680" windowHeight="13035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="190">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1973,7 +1973,7 @@
   <dimension ref="B2:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="J2" s="29">
         <f>SUBTOTAL(9,F3:F69)</f>
-        <v>57</v>
+        <v>56.5</v>
       </c>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
@@ -2029,7 +2029,7 @@
         <v>91</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F3" s="42">
         <v>2</v>
@@ -2052,7 +2052,7 @@
         <v>91</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F4" s="42">
         <v>2</v>
@@ -2319,19 +2319,11 @@
       <c r="C15" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="47">
-        <v>0.5</v>
-      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="48" t="s">
-        <v>186</v>
-      </c>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="50" t="s">
@@ -4845,6 +4837,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -5087,15 +5088,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5109,6 +5101,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5127,14 +5127,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>

--- a/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
+++ b/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447079\Documents\GitHub\ElfMillor_2\2月作品展示会の企画書・コスト表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\GitHub\ElfMillor_2\2月作品展示会の企画書・コスト表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5900BAB5-9A64-4322-B60E-9DCD08B753C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546D4808-5D21-4AED-8C68-8F854474E5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2205" windowWidth="19680" windowHeight="13035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="1125元データ" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$B$2:$H$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$B$2:$H$67</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="188">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -727,20 +727,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラス設計</t>
-    <rPh sb="3" eb="5">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ライブラリ設計</t>
-    <rPh sb="5" eb="7">
-      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1421,7 +1407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1443,56 +1429,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1828,11 +1805,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>0.1875</v>
+        <v>0.16216216216216217</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1850,7 +1827,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45642</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1871,11 +1848,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>9.375</v>
+        <v>16.071428571428573</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1888,11 +1865,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>4.5</v>
+        <v>5.625</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1905,15 +1882,15 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>3.125</v>
+        <v>3.629032258064516</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="29" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1938,28 +1915,28 @@
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="34" t="s">
-        <v>177</v>
+      <c r="B19" s="28" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1970,1507 +1947,1444 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D38F557-FDAE-4A8E-9AB4-DA4434728AF6}">
-  <dimension ref="B2:M69"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="27" customWidth="1"/>
-    <col min="2" max="3" width="24.625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="36" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="36" customWidth="1"/>
-    <col min="9" max="12" width="9.125" style="27" customWidth="1"/>
-    <col min="13" max="13" width="9" style="27" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="30" customWidth="1"/>
+    <col min="9" max="12" width="9.125" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="H2" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="J2">
+        <f>SUBTOTAL(9,F3:F67)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" hidden="1">
+      <c r="B3" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="J2" s="29">
-        <f>SUBTOTAL(9,F3:F69)</f>
-        <v>56.5</v>
-      </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="50" t="s">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" hidden="1">
+      <c r="B4" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="39" t="s">
+      <c r="C4" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" hidden="1">
+      <c r="B5" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="2:13" hidden="1">
+      <c r="B7" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:13" hidden="1">
+      <c r="B9" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F10" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="40">
+        <v>1</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="40">
+        <v>1</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" hidden="1">
+      <c r="B16" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" hidden="1">
+      <c r="B21" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" hidden="1">
+      <c r="B22" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" hidden="1">
+      <c r="B24" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" hidden="1">
+      <c r="B25" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="35">
+        <v>1</v>
+      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" hidden="1">
+      <c r="B27" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" hidden="1">
+      <c r="B28" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="40">
+        <v>1</v>
+      </c>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" hidden="1">
+      <c r="B29" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" hidden="1">
+      <c r="B30" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="35">
+        <v>1</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" hidden="1">
+      <c r="B31" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" hidden="1">
+      <c r="B32" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="35">
+        <v>1</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="35">
+        <v>1</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" hidden="1">
+      <c r="B34" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="35">
+        <v>3</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" hidden="1">
+      <c r="B35" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" hidden="1">
+      <c r="B36" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" hidden="1">
+      <c r="B37" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="35">
+        <v>1</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" hidden="1">
+      <c r="B38" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" hidden="1">
+      <c r="B39" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" hidden="1">
+      <c r="B40" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" hidden="1">
+      <c r="B41" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" hidden="1">
+      <c r="B42" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" hidden="1">
+      <c r="B43" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" hidden="1">
+      <c r="B44" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" hidden="1">
+      <c r="B45" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" hidden="1">
+      <c r="B46" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="40">
         <v>2</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="37" t="s">
+      <c r="G47" s="41"/>
+      <c r="H47" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" hidden="1">
+      <c r="B48" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" s="40">
+        <v>2</v>
+      </c>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F49" s="40">
+        <v>1</v>
+      </c>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="40">
+        <v>1</v>
+      </c>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" hidden="1">
+      <c r="B51" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="35">
+        <v>1</v>
+      </c>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" hidden="1">
+      <c r="B52" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" hidden="1">
+      <c r="B53" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" hidden="1">
+      <c r="B54" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="35">
+        <v>1</v>
+      </c>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" hidden="1">
+      <c r="B55" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="2:10" hidden="1">
+      <c r="B56" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="2:10" hidden="1">
+      <c r="B57" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="2:10" hidden="1">
+      <c r="B58" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" hidden="1">
+      <c r="B59" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" s="35">
+        <v>1</v>
+      </c>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" hidden="1">
+      <c r="B60" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="35">
+        <v>1</v>
+      </c>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" hidden="1">
+      <c r="B61" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61" s="35">
+        <v>1</v>
+      </c>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" hidden="1">
+      <c r="B62" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="40">
+        <v>1</v>
+      </c>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" hidden="1">
+      <c r="B63" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63" s="35">
+        <v>1</v>
+      </c>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" hidden="1">
+      <c r="B64" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64" s="35">
+        <v>1</v>
+      </c>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" hidden="1">
+      <c r="B65" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" s="35">
         <v>2</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="47">
-        <v>0.75</v>
-      </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="47">
-        <v>1</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="47">
-        <v>0.75</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="42">
-        <v>1</v>
-      </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="47">
-        <v>1</v>
-      </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="42">
-        <v>1</v>
-      </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="42">
-        <v>1</v>
-      </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="42">
-        <v>1</v>
-      </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="42">
+      <c r="G65" s="33"/>
+      <c r="H65" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" hidden="1">
+      <c r="B66" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="35">
+        <v>1</v>
+      </c>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" hidden="1">
+      <c r="B67" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="27"/>
+      <c r="D67" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" s="35">
         <v>3</v>
       </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="42">
-        <v>1.5</v>
-      </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="42">
-        <v>1</v>
-      </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F48" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="47">
-        <v>2</v>
-      </c>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="F50" s="47">
-        <v>2</v>
-      </c>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51" s="47">
-        <v>1</v>
-      </c>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" s="47">
-        <v>1</v>
-      </c>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" s="42">
-        <v>1</v>
-      </c>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="B56" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F56" s="42">
-        <v>1</v>
-      </c>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F57" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="J57" s="28"/>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F58" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="J58" s="28"/>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F59" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="J59" s="28"/>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F60" s="42">
-        <v>1.5</v>
-      </c>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10">
-      <c r="B61" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F61" s="42">
-        <v>1</v>
-      </c>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="B62" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F62" s="42">
-        <v>1</v>
-      </c>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F63" s="42">
-        <v>1</v>
-      </c>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F64" s="47">
-        <v>1</v>
-      </c>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F65" s="42">
-        <v>1</v>
-      </c>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F66" s="42">
-        <v>1</v>
-      </c>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F67" s="42">
-        <v>2</v>
-      </c>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F68" s="42">
-        <v>1</v>
-      </c>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E69" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="F69" s="42">
-        <v>3</v>
-      </c>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40" t="s">
-        <v>187</v>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H69" xr:uid="{6D38F557-FDAE-4A8E-9AB4-DA4434728AF6}"/>
+  <autoFilter ref="B2:H67" xr:uid="{6D38F557-FDAE-4A8E-9AB4-DA4434728AF6}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="完了"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E69" xr:uid="{C78BB7B6-5BED-4047-A6E5-5EA341431CA8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E67" xr:uid="{C78BB7B6-5BED-4047-A6E5-5EA341431CA8}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D69" xr:uid="{A8038AD9-9658-4079-B0FA-EF1F9DEE6799}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D67" xr:uid="{A8038AD9-9658-4079-B0FA-EF1F9DEE6799}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H69" xr:uid="{5D8F3CED-D764-47DD-803E-CFBD346B4F70}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H67" xr:uid="{5D8F3CED-D764-47DD-803E-CFBD346B4F70}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4837,12 +4751,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5089,21 +5006,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5128,12 +5045,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
+++ b/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\GitHub\ElfMillor_2\2月作品展示会の企画書・コスト表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546D4808-5D21-4AED-8C68-8F854474E5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C7CC77-2DF9-4278-A7C1-31B739541FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
     <sheet name="作業工数見積もり" sheetId="4" r:id="rId2"/>
-    <sheet name="1125元データ" sheetId="1" r:id="rId3"/>
+    <sheet name="変更後" sheetId="6" r:id="rId3"/>
+    <sheet name="1125元データ" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$B$2:$H$67</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="188">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1805,11 +1806,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>0.16216216216216217</v>
+        <v>0.1276595744680851</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1827,7 +1828,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45649</v>
+        <v>45663</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1848,11 +1849,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>16.071428571428573</v>
+        <v>-22.5</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1865,11 +1866,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>5.625</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1882,11 +1883,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>3.629032258064516</v>
+        <v>5.3571428571428568</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1947,11 +1948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D38F557-FDAE-4A8E-9AB4-DA4434728AF6}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1991,10 +1991,10 @@
       </c>
       <c r="J2">
         <f>SUBTOTAL(9,F3:F67)</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" hidden="1">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" s="43" t="s">
         <v>115</v>
       </c>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:13" hidden="1">
+    <row r="4" spans="2:13">
       <c r="B4" s="43" t="s">
         <v>115</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="2:13" hidden="1">
+    <row r="5" spans="2:13">
       <c r="B5" s="43" t="s">
         <v>115</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="2:13" hidden="1">
+    <row r="7" spans="2:13">
       <c r="B7" s="43" t="s">
         <v>115</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="2:13" hidden="1">
+    <row r="9" spans="2:13">
       <c r="B9" s="43" t="s">
         <v>115</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="2:13" hidden="1">
+    <row r="16" spans="2:13">
       <c r="B16" s="43" t="s">
         <v>117</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="2:8" hidden="1">
+    <row r="21" spans="2:8">
       <c r="B21" s="43" t="s">
         <v>117</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1">
+    <row r="22" spans="2:8">
       <c r="B22" s="43" t="s">
         <v>117</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="2:8" hidden="1">
+    <row r="24" spans="2:8">
       <c r="B24" s="43" t="s">
         <v>118</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1">
+    <row r="25" spans="2:8">
       <c r="B25" s="43" t="s">
         <v>118</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1">
+    <row r="27" spans="2:8">
       <c r="B27" s="43" t="s">
         <v>119</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1">
+    <row r="28" spans="2:8">
       <c r="B28" s="43" t="s">
         <v>119</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1">
+    <row r="29" spans="2:8">
       <c r="B29" s="43" t="s">
         <v>120</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1">
+    <row r="30" spans="2:8">
       <c r="B30" s="43" t="s">
         <v>120</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1">
+    <row r="31" spans="2:8">
       <c r="B31" s="43" t="s">
         <v>121</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1">
+    <row r="32" spans="2:8">
       <c r="B32" s="43" t="s">
         <v>121</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="2:8" hidden="1">
+    <row r="34" spans="2:8">
       <c r="B34" s="43" t="s">
         <v>121</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1">
+    <row r="35" spans="2:8">
       <c r="B35" s="43" t="s">
         <v>121</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1">
+    <row r="36" spans="2:8">
       <c r="B36" s="43" t="s">
         <v>122</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="2:8" hidden="1">
+    <row r="37" spans="2:8">
       <c r="B37" s="43" t="s">
         <v>122</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="2:8" hidden="1">
+    <row r="38" spans="2:8">
       <c r="B38" s="43" t="s">
         <v>122</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="2:8" hidden="1">
+    <row r="39" spans="2:8">
       <c r="B39" s="43" t="s">
         <v>123</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="2:8" hidden="1">
+    <row r="40" spans="2:8">
       <c r="B40" s="43" t="s">
         <v>123</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="2:8" hidden="1">
+    <row r="41" spans="2:8">
       <c r="B41" s="43" t="s">
         <v>123</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="2:8" hidden="1">
+    <row r="42" spans="2:8">
       <c r="B42" s="43" t="s">
         <v>123</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="2:8" hidden="1">
+    <row r="43" spans="2:8">
       <c r="B43" s="43" t="s">
         <v>124</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="2:8" hidden="1">
+    <row r="44" spans="2:8">
       <c r="B44" s="43" t="s">
         <v>124</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="2:8" hidden="1">
+    <row r="45" spans="2:8">
       <c r="B45" s="43" t="s">
         <v>124</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1">
+    <row r="46" spans="2:8">
       <c r="B46" s="43" t="s">
         <v>124</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1">
+    <row r="48" spans="2:8">
       <c r="B48" s="43" t="s">
         <v>125</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:10" hidden="1">
+    <row r="51" spans="2:10">
       <c r="B51" s="43" t="s">
         <v>125</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="2:10" hidden="1">
+    <row r="52" spans="2:10">
       <c r="B52" s="43" t="s">
         <v>126</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="2:10" hidden="1">
+    <row r="53" spans="2:10">
       <c r="B53" s="43" t="s">
         <v>126</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="2:10" hidden="1">
+    <row r="54" spans="2:10">
       <c r="B54" s="43" t="s">
         <v>126</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="2:10" hidden="1">
+    <row r="55" spans="2:10">
       <c r="B55" s="43" t="s">
         <v>126</v>
       </c>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="2:10" hidden="1">
+    <row r="56" spans="2:10">
       <c r="B56" s="43" t="s">
         <v>127</v>
       </c>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="2:10" hidden="1">
+    <row r="57" spans="2:10">
       <c r="B57" s="43" t="s">
         <v>127</v>
       </c>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="2:10" hidden="1">
+    <row r="58" spans="2:10">
       <c r="B58" s="43" t="s">
         <v>127</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="2:10" hidden="1">
+    <row r="59" spans="2:10">
       <c r="B59" s="43" t="s">
         <v>128</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="2:10" hidden="1">
+    <row r="60" spans="2:10">
       <c r="B60" s="43" t="s">
         <v>128</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="2:10" hidden="1">
+    <row r="61" spans="2:10">
       <c r="B61" s="43" t="s">
         <v>128</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="2:10" hidden="1">
+    <row r="62" spans="2:10">
       <c r="B62" s="43" t="s">
         <v>128</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="2:10" hidden="1">
+    <row r="63" spans="2:10">
       <c r="B63" s="43" t="s">
         <v>110</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="2:10" hidden="1">
+    <row r="64" spans="2:10">
       <c r="B64" s="43" t="s">
         <v>110</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="2:8" hidden="1">
+    <row r="65" spans="2:8">
       <c r="B65" s="43" t="s">
         <v>110</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="2:8" hidden="1">
+    <row r="66" spans="2:8">
       <c r="B66" s="43" t="s">
         <v>110</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="2:8" hidden="1">
+    <row r="67" spans="2:8">
       <c r="B67" s="43" t="s">
         <v>129</v>
       </c>
@@ -3369,13 +3369,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H67" xr:uid="{6D38F557-FDAE-4A8E-9AB4-DA4434728AF6}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="完了"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:H67" xr:uid="{6D38F557-FDAE-4A8E-9AB4-DA4434728AF6}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E67" xr:uid="{C78BB7B6-5BED-4047-A6E5-5EA341431CA8}">
@@ -3394,6 +3388,1214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A2B75F-7A6D-4E89-8ABF-80383F0D56BF}">
+  <dimension ref="B2:M56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="30" customWidth="1"/>
+    <col min="9" max="12" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2">
+        <f>SUBTOTAL(9,F3:F56)</f>
+        <v>46.25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="40">
+        <v>1</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="40">
+        <v>1</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="35">
+        <v>1</v>
+      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="40">
+        <v>1</v>
+      </c>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="35">
+        <v>1</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="35">
+        <v>1</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="35">
+        <v>1</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="35">
+        <v>3</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="40">
+        <v>2</v>
+      </c>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="40">
+        <v>2</v>
+      </c>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="40">
+        <v>1</v>
+      </c>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="40">
+        <v>1</v>
+      </c>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="35">
+        <v>1</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="35">
+        <v>1</v>
+      </c>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="35">
+        <v>1</v>
+      </c>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="35">
+        <v>1</v>
+      </c>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="35">
+        <v>1</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="40">
+        <v>1</v>
+      </c>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="35">
+        <v>1</v>
+      </c>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="35">
+        <v>1</v>
+      </c>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="35">
+        <v>2</v>
+      </c>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="35">
+        <v>1</v>
+      </c>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="35">
+        <v>3</v>
+      </c>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H56" xr:uid="{187321BF-B801-4E23-94AE-CA073262D56B}">
+      <formula1>"未着手,作業中,完了"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D56" xr:uid="{6ADF115B-7EB2-4EC5-B0C1-BB7B201D1FBA}">
+      <formula1>"S,A,B,C"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E56" xr:uid="{5677BD3A-FAA5-499D-856B-287FF237215A}">
+      <formula1>"プロト,α,β,マスター"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I84"/>
   <sheetViews>
@@ -4751,15 +5953,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5006,21 +6205,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5045,9 +6244,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
+++ b/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\GitHub\ElfMillor_2\2月作品展示会の企画書・コスト表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447079\Documents\GitHub\ElfMillor_2\2月作品展示会の企画書・コスト表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C7CC77-2DF9-4278-A7C1-31B739541FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC53B63-25AB-43B2-89AB-E999D15D3D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5430" yWindow="555" windowWidth="21795" windowHeight="13755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
     <sheet name="作業工数見積もり" sheetId="4" r:id="rId2"/>
-    <sheet name="変更後" sheetId="6" r:id="rId3"/>
+    <sheet name="見積もり変更後" sheetId="6" r:id="rId3"/>
     <sheet name="1125元データ" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -1806,11 +1806,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>0.1276595744680851</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45663</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1849,11 +1849,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>-22.5</v>
+        <v>-14.0625</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1866,11 +1866,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>11.25</v>
+        <v>16.071428571428573</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1883,11 +1883,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>5.3571428571428568</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -3392,7 +3392,7 @@
   <dimension ref="B2:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5953,12 +5953,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6205,21 +6208,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6244,12 +6247,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
+++ b/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447079\Documents\GitHub\ElfMillor_2\2月作品展示会の企画書・コスト表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC53B63-25AB-43B2-89AB-E999D15D3D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73211A88-02A5-40BA-A451-A20FF03468EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="555" windowWidth="21795" windowHeight="13755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5385" yWindow="870" windowWidth="21795" windowHeight="13755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="1125元データ" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">見積もり変更後!$B$2:$H$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$B$2:$H$67</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -1950,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D38F557-FDAE-4A8E-9AB4-DA4434728AF6}">
   <dimension ref="B2:M67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -3391,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A2B75F-7A6D-4E89-8ABF-80383F0D56BF}">
   <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3964,7 +3965,7 @@
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -4578,6 +4579,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:H56" xr:uid="{69A2B75F-7A6D-4E89-8ABF-80383F0D56BF}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H56" xr:uid="{187321BF-B801-4E23-94AE-CA073262D56B}">
@@ -5953,15 +5955,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6208,21 +6207,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6247,9 +6246,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
+++ b/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447079\Documents\GitHub\ElfMillor_2\2月作品展示会の企画書・コスト表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73211A88-02A5-40BA-A451-A20FF03468EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593EF59F-169A-4D89-8C0F-791FAEC1A66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="870" windowWidth="21795" windowHeight="13755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="885" windowWidth="21795" windowHeight="13650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="1125元データ" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">見積もり変更後!$B$2:$H$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">見積もり変更後!$B$2:$H$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$B$2:$H$67</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="188">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1807,11 +1807,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>0.12</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45666</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1850,11 +1850,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>-14.0625</v>
+        <v>-9.375</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1867,11 +1867,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>16.071428571428573</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1884,11 +1884,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>6.25</v>
+        <v>8.0357142857142865</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D38F557-FDAE-4A8E-9AB4-DA4434728AF6}">
   <dimension ref="B2:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3390,10 +3390,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A2B75F-7A6D-4E89-8ABF-80383F0D56BF}">
-  <dimension ref="B2:M56"/>
+  <dimension ref="B2:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3431,8 +3431,8 @@
         <v>183</v>
       </c>
       <c r="J2">
-        <f>SUBTOTAL(9,F3:F56)</f>
-        <v>46.25</v>
+        <f>SUBTOTAL(9,F3:F55)</f>
+        <v>45.5</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -3720,21 +3720,21 @@
       <c r="B16" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="35">
-        <v>0.75</v>
-      </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33" t="s">
-        <v>185</v>
+      <c r="C16" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -3742,7 +3742,7 @@
         <v>117</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>91</v>
@@ -3751,7 +3751,7 @@
         <v>101</v>
       </c>
       <c r="F17" s="40">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41" t="s">
@@ -3763,7 +3763,7 @@
         <v>117</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>91</v>
@@ -3772,11 +3772,11 @@
         <v>101</v>
       </c>
       <c r="F18" s="40">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G18" s="41"/>
       <c r="H18" s="41" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -3784,7 +3784,7 @@
         <v>117</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>91</v>
@@ -3793,11 +3793,11 @@
         <v>101</v>
       </c>
       <c r="F19" s="40">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="41" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -3805,7 +3805,7 @@
         <v>117</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>91</v>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -3826,7 +3826,7 @@
         <v>117</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>91</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>91</v>
@@ -3856,11 +3856,11 @@
         <v>101</v>
       </c>
       <c r="F22" s="40">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G22" s="41"/>
       <c r="H22" s="41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -3868,7 +3868,7 @@
         <v>118</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>91</v>
@@ -3877,31 +3877,31 @@
         <v>101</v>
       </c>
       <c r="F23" s="40">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="41"/>
       <c r="H23" s="41" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41" t="s">
+      <c r="C24" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="35">
+        <v>1</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3909,38 +3909,38 @@
       <c r="B25" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="35">
-        <v>1</v>
-      </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33" t="s">
-        <v>185</v>
+      <c r="C25" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="40">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G26" s="41"/>
       <c r="H26" s="41" t="s">
@@ -3952,7 +3952,7 @@
         <v>119</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>91</v>
@@ -3961,31 +3961,31 @@
         <v>100</v>
       </c>
       <c r="F27" s="40">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="41" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="40">
-        <v>1</v>
-      </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
         <v>120</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>91</v>
@@ -4003,7 +4003,7 @@
         <v>100</v>
       </c>
       <c r="F29" s="35">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G29" s="33"/>
       <c r="H29" s="33" t="s">
@@ -4012,10 +4012,10 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>91</v>
@@ -4024,7 +4024,7 @@
         <v>100</v>
       </c>
       <c r="F30" s="35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G30" s="33"/>
       <c r="H30" s="33" t="s">
@@ -4036,7 +4036,7 @@
         <v>121</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>91</v>
@@ -4045,7 +4045,7 @@
         <v>100</v>
       </c>
       <c r="F31" s="35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33" t="s">
@@ -4057,7 +4057,7 @@
         <v>121</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>91</v>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -4078,20 +4078,20 @@
         <v>121</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>100</v>
       </c>
       <c r="F33" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="33" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="2:10">
@@ -4099,16 +4099,16 @@
         <v>121</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F34" s="35">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="33" t="s">
@@ -4117,23 +4117,23 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="35">
-        <v>1.5</v>
-      </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33" t="s">
-        <v>185</v>
+        <v>125</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="40">
+        <v>2</v>
+      </c>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="2:10">
@@ -4141,20 +4141,20 @@
         <v>125</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F36" s="40">
         <v>2</v>
       </c>
       <c r="G36" s="41"/>
       <c r="H36" s="41" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -4162,20 +4162,20 @@
         <v>125</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F37" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="41"/>
       <c r="H37" s="41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="2:10">
@@ -4183,7 +4183,7 @@
         <v>125</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>91</v>
@@ -4203,38 +4203,38 @@
       <c r="B39" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="40">
-        <v>1</v>
-      </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41" t="s">
-        <v>182</v>
+      <c r="C39" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="35">
+        <v>1</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F40" s="35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="33" t="s">
@@ -4246,7 +4246,7 @@
         <v>126</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>98</v>
@@ -4267,7 +4267,7 @@
         <v>126</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>98</v>
@@ -4276,7 +4276,7 @@
         <v>102</v>
       </c>
       <c r="F42" s="35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G42" s="33"/>
       <c r="H42" s="33" t="s">
@@ -4288,7 +4288,7 @@
         <v>126</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>98</v>
@@ -4297,28 +4297,29 @@
         <v>102</v>
       </c>
       <c r="F43" s="35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="33"/>
       <c r="H43" s="33" t="s">
         <v>185</v>
       </c>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>102</v>
       </c>
       <c r="F44" s="35">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G44" s="33"/>
       <c r="H44" s="33" t="s">
@@ -4331,7 +4332,7 @@
         <v>127</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>97</v>
@@ -4353,7 +4354,7 @@
         <v>127</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>97</v>
@@ -4362,29 +4363,28 @@
         <v>102</v>
       </c>
       <c r="F46" s="35">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="G46" s="33"/>
       <c r="H46" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="J46" s="1"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>102</v>
       </c>
       <c r="F47" s="35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G47" s="33"/>
       <c r="H47" s="33" t="s">
@@ -4396,10 +4396,10 @@
         <v>128</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>102</v>
@@ -4417,7 +4417,7 @@
         <v>128</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>91</v>
@@ -4437,41 +4437,41 @@
       <c r="B50" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="31" t="s">
+      <c r="C50" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="35">
-        <v>1</v>
-      </c>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33" t="s">
+      <c r="F50" s="40">
+        <v>1</v>
+      </c>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="F51" s="40">
-        <v>1</v>
-      </c>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41" t="s">
+      <c r="F51" s="35">
+        <v>1</v>
+      </c>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4480,7 +4480,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D52" s="31" t="s">
         <v>98</v>
@@ -4501,7 +4501,7 @@
         <v>110</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D53" s="31" t="s">
         <v>98</v>
@@ -4510,7 +4510,7 @@
         <v>102</v>
       </c>
       <c r="F53" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="33" t="s">
@@ -4522,7 +4522,7 @@
         <v>110</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D54" s="31" t="s">
         <v>98</v>
@@ -4531,7 +4531,7 @@
         <v>102</v>
       </c>
       <c r="F54" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="33" t="s">
@@ -4540,55 +4540,34 @@
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>102</v>
+        <v>129</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="F55" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G55" s="33"/>
       <c r="H55" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56" s="35">
-        <v>3</v>
-      </c>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:H56" xr:uid="{69A2B75F-7A6D-4E89-8ABF-80383F0D56BF}"/>
+  <autoFilter ref="B2:H55" xr:uid="{69A2B75F-7A6D-4E89-8ABF-80383F0D56BF}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H56" xr:uid="{187321BF-B801-4E23-94AE-CA073262D56B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H55" xr:uid="{187321BF-B801-4E23-94AE-CA073262D56B}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D56" xr:uid="{6ADF115B-7EB2-4EC5-B0C1-BB7B201D1FBA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D55" xr:uid="{6ADF115B-7EB2-4EC5-B0C1-BB7B201D1FBA}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E56" xr:uid="{5677BD3A-FAA5-499D-856B-287FF237215A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E55" xr:uid="{5677BD3A-FAA5-499D-856B-287FF237215A}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5955,12 +5934,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6207,21 +6189,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6246,12 +6228,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
+++ b/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447079\Documents\GitHub\ElfMillor_2\2月作品展示会の企画書・コスト表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593EF59F-169A-4D89-8C0F-791FAEC1A66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ABCD6B-AD8E-4BEB-BF72-0CF8DF4DA41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2370" yWindow="885" windowWidth="21795" windowHeight="13650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1807,11 +1807,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>0.1111111111111111</v>
+        <v>0.10714285714285714</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45672</v>
+        <v>45674</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1850,11 +1850,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>-9.375</v>
+        <v>-8.0357142857142865</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1867,11 +1867,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>37.5</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1884,11 +1884,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>8.0357142857142865</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -3392,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A2B75F-7A6D-4E89-8ABF-80383F0D56BF}">
   <dimension ref="B2:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="G36" s="41"/>
       <c r="H36" s="41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="G39" s="33"/>
       <c r="H39" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="2:10">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="G44" s="33"/>
       <c r="H44" s="33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J44" s="1"/>
     </row>
@@ -5934,15 +5934,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6189,21 +6186,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6228,9 +6225,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
+++ b/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447079\Documents\GitHub\ElfMillor_2\2月作品展示会の企画書・コスト表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ABCD6B-AD8E-4BEB-BF72-0CF8DF4DA41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8A7FDC-133B-433D-A01F-EC624F866F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="885" windowWidth="21795" windowHeight="13650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="840" windowWidth="21795" windowHeight="13650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="5" r:id="rId1"/>
-    <sheet name="作業工数見積もり" sheetId="4" r:id="rId2"/>
-    <sheet name="見積もり変更後" sheetId="6" r:id="rId3"/>
+    <sheet name="変更後" sheetId="6" r:id="rId2"/>
+    <sheet name="作業工数見積もり元データ" sheetId="4" r:id="rId3"/>
     <sheet name="1125元データ" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">見積もり変更後!$B$2:$H$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業工数見積もり!$B$2:$H$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業工数見積もり元データ!$B$2:$H$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">変更後!$B$2:$H$55</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1807,11 +1807,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>0.10714285714285714</v>
+        <v>0.10526315789473684</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45674</v>
+        <v>45677</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1850,11 +1850,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>-8.0357142857142865</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1867,11 +1867,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>112.5</v>
+        <v>-56.25</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1884,11 +1884,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>9.375</v>
+        <v>10.227272727272727</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1948,10 +1948,1198 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A2B75F-7A6D-4E89-8ABF-80383F0D56BF}">
+  <dimension ref="B2:M55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="30" customWidth="1"/>
+    <col min="9" max="12" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2">
+        <f>SUBTOTAL(9,F3:F55)</f>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="40">
+        <v>1</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="40">
+        <v>1</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="35">
+        <v>1</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="40">
+        <v>1</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="35">
+        <v>1</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="35">
+        <v>1</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="35">
+        <v>1</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="35">
+        <v>3</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="40">
+        <v>2</v>
+      </c>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="40">
+        <v>2</v>
+      </c>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="40">
+        <v>1</v>
+      </c>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="40">
+        <v>1</v>
+      </c>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="35">
+        <v>1</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="35">
+        <v>1</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="35">
+        <v>1</v>
+      </c>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="35">
+        <v>1</v>
+      </c>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="35">
+        <v>1</v>
+      </c>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="40">
+        <v>1</v>
+      </c>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="35">
+        <v>1</v>
+      </c>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="35">
+        <v>1</v>
+      </c>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="35">
+        <v>2</v>
+      </c>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="35">
+        <v>1</v>
+      </c>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="35">
+        <v>3</v>
+      </c>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:H55" xr:uid="{69A2B75F-7A6D-4E89-8ABF-80383F0D56BF}"/>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H55" xr:uid="{187321BF-B801-4E23-94AE-CA073262D56B}">
+      <formula1>"未着手,作業中,完了"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D55" xr:uid="{6ADF115B-7EB2-4EC5-B0C1-BB7B201D1FBA}">
+      <formula1>"S,A,B,C"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E55" xr:uid="{5677BD3A-FAA5-499D-856B-287FF237215A}">
+      <formula1>"プロト,α,β,マスター"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D38F557-FDAE-4A8E-9AB4-DA4434728AF6}">
   <dimension ref="B2:M67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -3381,1194 +4569,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H67" xr:uid="{5D8F3CED-D764-47DD-803E-CFBD346B4F70}">
       <formula1>"未着手,作業中,完了"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A2B75F-7A6D-4E89-8ABF-80383F0D56BF}">
-  <dimension ref="B2:M55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="3" width="24.625" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="30" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="30" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="30" customWidth="1"/>
-    <col min="9" max="12" width="9.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="J2">
-        <f>SUBTOTAL(9,F3:F55)</f>
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="40">
-        <v>1</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="40">
-        <v>1</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="40">
-        <v>0.75</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="35">
-        <v>1</v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="40">
-        <v>1</v>
-      </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="35">
-        <v>1</v>
-      </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="35">
-        <v>1</v>
-      </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="35">
-        <v>1</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="35">
-        <v>3</v>
-      </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="35">
-        <v>1.5</v>
-      </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="40">
-        <v>2</v>
-      </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="40">
-        <v>2</v>
-      </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" s="40">
-        <v>1</v>
-      </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="40">
-        <v>1</v>
-      </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="35">
-        <v>1</v>
-      </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="35">
-        <v>1</v>
-      </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="35">
-        <v>0.75</v>
-      </c>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" s="35">
-        <v>0.75</v>
-      </c>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" s="35">
-        <v>1.5</v>
-      </c>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="35">
-        <v>1</v>
-      </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F48" s="35">
-        <v>1</v>
-      </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49" s="35">
-        <v>1</v>
-      </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" s="40">
-        <v>1</v>
-      </c>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="35">
-        <v>1</v>
-      </c>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F52" s="35">
-        <v>1</v>
-      </c>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="35">
-        <v>2</v>
-      </c>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="35">
-        <v>1</v>
-      </c>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="F55" s="35">
-        <v>3</v>
-      </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B2:H55" xr:uid="{69A2B75F-7A6D-4E89-8ABF-80383F0D56BF}"/>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H55" xr:uid="{187321BF-B801-4E23-94AE-CA073262D56B}">
-      <formula1>"未着手,作業中,完了"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D55" xr:uid="{6ADF115B-7EB2-4EC5-B0C1-BB7B201D1FBA}">
-      <formula1>"S,A,B,C"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E55" xr:uid="{5677BD3A-FAA5-499D-856B-287FF237215A}">
-      <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5934,12 +5934,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6186,21 +6189,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6225,12 +6228,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
+++ b/2月作品展示会の企画書・コスト表/藤原冬志コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447079\Documents\GitHub\ElfMillor_2\2月作品展示会の企画書・コスト表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8A7FDC-133B-433D-A01F-EC624F866F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89012F49-4519-48BE-8608-098C311347B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="840" windowWidth="21795" windowHeight="13650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業工数見積もり元データ!$B$2:$H$67</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">変更後!$B$2:$H$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">変更後!$B$2:$H$48</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="190">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -1134,6 +1134,23 @@
     <t>入手</t>
     <rPh sb="0" eb="2">
       <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地を這うエネミー</t>
+    <rPh sb="0" eb="1">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛行エネミー</t>
+    <rPh sb="0" eb="2">
+      <t>ヒコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1807,11 +1824,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3 / C4</f>
-        <v>0.10526315789473684</v>
+        <v>9.6774193548387094E-2</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1829,7 +1846,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45677</v>
+        <v>45684</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1850,11 +1867,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>-7.5</v>
+        <v>-5.625</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1867,11 +1884,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>-56.25</v>
+        <v>-16.071428571428573</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1884,11 +1901,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>10.227272727272727</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1949,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A2B75F-7A6D-4E89-8ABF-80383F0D56BF}">
-  <dimension ref="B2:M55"/>
+  <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1990,8 +2007,8 @@
         <v>183</v>
       </c>
       <c r="J2">
-        <f>SUBTOTAL(9,F3:F55)</f>
-        <v>45.5</v>
+        <f>SUBTOTAL(9,F3:F48)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -2012,7 +2029,7 @@
       </c>
       <c r="G3" s="37"/>
       <c r="H3" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -2034,7 +2051,7 @@
       </c>
       <c r="G4" s="37"/>
       <c r="H4" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -2055,7 +2072,7 @@
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -2100,7 +2117,7 @@
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="2"/>
@@ -2377,7 +2394,7 @@
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -2398,7 +2415,7 @@
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -2427,7 +2444,7 @@
         <v>118</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>91</v>
@@ -2440,45 +2457,45 @@
       </c>
       <c r="G23" s="41"/>
       <c r="H23" s="41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="35">
-        <v>1</v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="43" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="41" t="s">
@@ -2487,142 +2504,142 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="40">
+      <c r="D26" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="35">
         <v>0.25</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41" t="s">
+      <c r="G26" s="33"/>
+      <c r="H26" s="33" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="40">
-        <v>1</v>
-      </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41" t="s">
+      <c r="D27" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="35">
+        <v>1</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33" t="s">
-        <v>184</v>
+        <v>125</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="40">
+        <v>2</v>
+      </c>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="35">
-        <v>1</v>
-      </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33" t="s">
-        <v>184</v>
+        <v>125</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="40">
+        <v>2</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33" t="s">
-        <v>185</v>
+        <v>125</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="40">
+        <v>1</v>
+      </c>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="35">
-        <v>1</v>
-      </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33" t="s">
-        <v>185</v>
+        <v>125</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="40">
+        <v>1</v>
+      </c>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="43" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F32" s="35">
         <v>1</v>
@@ -2634,19 +2651,19 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="43" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F33" s="35">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="33" t="s">
@@ -2655,10 +2672,10 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="43" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>98</v>
@@ -2667,7 +2684,7 @@
         <v>102</v>
       </c>
       <c r="F34" s="35">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="33" t="s">
@@ -2676,115 +2693,118 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="40">
-        <v>2</v>
-      </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41" t="s">
-        <v>182</v>
+        <v>126</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="40">
-        <v>2</v>
-      </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41" t="s">
-        <v>182</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" s="40">
-        <v>1</v>
-      </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33" t="s">
         <v>182</v>
       </c>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="40">
-        <v>1</v>
-      </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41" t="s">
-        <v>182</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F39" s="35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G39" s="33"/>
       <c r="H39" s="33" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="43" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>98</v>
@@ -2793,7 +2813,7 @@
         <v>102</v>
       </c>
       <c r="F40" s="35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="33" t="s">
@@ -2802,19 +2822,19 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="43" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>102</v>
       </c>
       <c r="F41" s="35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="33" t="s">
@@ -2823,13 +2843,13 @@
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="43" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E42" s="31" t="s">
         <v>102</v>
@@ -2844,85 +2864,82 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="F43" s="40">
+        <v>1</v>
+      </c>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="43" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>102</v>
       </c>
       <c r="F44" s="35">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G44" s="33"/>
       <c r="H44" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="J44" s="1"/>
+        <v>185</v>
+      </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="43" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>102</v>
       </c>
       <c r="F45" s="35">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G45" s="33"/>
       <c r="H45" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="43" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E46" s="31" t="s">
         <v>102</v>
       </c>
       <c r="F46" s="35">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G46" s="33"/>
       <c r="H46" s="33" t="s">
@@ -2931,10 +2948,10 @@
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="43" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>98</v>
@@ -2952,181 +2969,34 @@
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>102</v>
+        <v>129</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="F48" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" s="33"/>
       <c r="H48" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49" s="35">
-        <v>1</v>
-      </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" s="40">
-        <v>1</v>
-      </c>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="35">
-        <v>1</v>
-      </c>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F52" s="35">
-        <v>1</v>
-      </c>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="35">
-        <v>2</v>
-      </c>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="35">
-        <v>1</v>
-      </c>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="F55" s="35">
-        <v>3</v>
-      </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B2:H55" xr:uid="{69A2B75F-7A6D-4E89-8ABF-80383F0D56BF}"/>
+  <autoFilter ref="B2:H48" xr:uid="{69A2B75F-7A6D-4E89-8ABF-80383F0D56BF}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H55" xr:uid="{187321BF-B801-4E23-94AE-CA073262D56B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H48" xr:uid="{187321BF-B801-4E23-94AE-CA073262D56B}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D55" xr:uid="{6ADF115B-7EB2-4EC5-B0C1-BB7B201D1FBA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D48" xr:uid="{6ADF115B-7EB2-4EC5-B0C1-BB7B201D1FBA}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E55" xr:uid="{5677BD3A-FAA5-499D-856B-287FF237215A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E48" xr:uid="{5677BD3A-FAA5-499D-856B-287FF237215A}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5934,15 +5804,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6189,21 +6056,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6228,9 +6095,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>